--- a/df.xlsx
+++ b/df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,127 +436,291 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.3</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Logs</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="F3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Mar</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Apr</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="F5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Jun</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="F7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Jul</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="F8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sep</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Oct</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="F11" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Nov</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>1</v>
+      <c r="F12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Dec</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="F13" t="n">
         <v>1</v>
       </c>
     </row>

--- a/df.xlsx
+++ b/df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,40 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.6</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.5</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.4</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Logs</t>
         </is>
@@ -473,12 +488,21 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -495,12 +519,21 @@
       <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -517,12 +550,21 @@
       <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mar</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -539,12 +581,21 @@
       <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Apr</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -561,12 +612,21 @@
       <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -583,12 +643,21 @@
       <c r="D7" t="n">
         <v>5</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Jun</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="I7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -605,12 +674,21 @@
       <c r="D8" t="n">
         <v>6</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Jul</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -627,12 +705,21 @@
       <c r="D9" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="I9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -649,12 +736,21 @@
       <c r="D10" t="n">
         <v>8</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Sep</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -671,12 +767,21 @@
       <c r="D11" t="n">
         <v>9</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9</v>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Oct</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="I11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -693,13 +798,22 @@
       <c r="D12" t="n">
         <v>10</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Nov</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>3</v>
+      <c r="I12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -715,12 +829,21 @@
       <c r="D13" t="n">
         <v>11</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11</v>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Dec</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="I13" t="n">
         <v>1</v>
       </c>
     </row>

--- a/df.xlsx
+++ b/df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,40 +436,70 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.12</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.11</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.10</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.9</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.8</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.7</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.6</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.5</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Logs</t>
         </is>
@@ -497,12 +527,30 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -528,12 +576,30 @@
       <c r="G3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="O3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -559,12 +625,30 @@
       <c r="G4" t="n">
         <v>2</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>Mar</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,12 +674,30 @@
       <c r="G5" t="n">
         <v>3</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>Apr</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="O5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -621,12 +723,30 @@
       <c r="G6" t="n">
         <v>4</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="O6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -652,12 +772,30 @@
       <c r="G7" t="n">
         <v>5</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>Jun</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="O7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -683,12 +821,30 @@
       <c r="G8" t="n">
         <v>6</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>Jul</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="O8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -714,12 +870,30 @@
       <c r="G9" t="n">
         <v>7</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="O9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -745,12 +919,30 @@
       <c r="G10" t="n">
         <v>8</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>8</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>Sep</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="O10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -776,12 +968,30 @@
       <c r="G11" t="n">
         <v>9</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9</v>
+      </c>
+      <c r="M11" t="n">
+        <v>9</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>Oct</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="O11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -807,13 +1017,31 @@
       <c r="G12" t="n">
         <v>10</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10</v>
+      </c>
+      <c r="K12" t="n">
+        <v>10</v>
+      </c>
+      <c r="L12" t="n">
+        <v>10</v>
+      </c>
+      <c r="M12" t="n">
+        <v>10</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>Nov</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v>6</v>
+      <c r="O12" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -838,12 +1066,30 @@
       <c r="G13" t="n">
         <v>11</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>11</v>
+      </c>
+      <c r="I13" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" t="n">
+        <v>11</v>
+      </c>
+      <c r="K13" t="n">
+        <v>11</v>
+      </c>
+      <c r="L13" t="n">
+        <v>11</v>
+      </c>
+      <c r="M13" t="n">
+        <v>11</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>Dec</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="O13" t="n">
         <v>1</v>
       </c>
     </row>

--- a/df.xlsx
+++ b/df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,70 +436,80 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.14</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.13</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.12</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.11</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.10</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.9</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.8</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.7</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.6</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.5</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Logs</t>
         </is>
@@ -545,12 +555,18 @@
       <c r="M2" t="n">
         <v>0</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -594,12 +610,18 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -643,12 +665,18 @@
       <c r="M4" t="n">
         <v>2</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>Mar</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -692,12 +720,18 @@
       <c r="M5" t="n">
         <v>3</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>Apr</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -741,12 +775,18 @@
       <c r="M6" t="n">
         <v>4</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -790,12 +830,18 @@
       <c r="M7" t="n">
         <v>5</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>Jun</t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -839,12 +885,18 @@
       <c r="M8" t="n">
         <v>6</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" t="n">
+        <v>6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6</v>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>Jul</t>
         </is>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +940,18 @@
       <c r="M9" t="n">
         <v>7</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>7</v>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -937,12 +995,18 @@
       <c r="M10" t="n">
         <v>8</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>8</v>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>Sep</t>
         </is>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -986,12 +1050,18 @@
       <c r="M11" t="n">
         <v>9</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" t="n">
+        <v>9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>9</v>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>Oct</t>
         </is>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1035,13 +1105,19 @@
       <c r="M12" t="n">
         <v>10</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>10</v>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>Nov</t>
         </is>
       </c>
-      <c r="O12" t="n">
-        <v>13</v>
+      <c r="Q12" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1084,12 +1160,18 @@
       <c r="M13" t="n">
         <v>11</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>11</v>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>Dec</t>
         </is>
       </c>
-      <c r="O13" t="n">
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
     </row>

--- a/df.xlsx
+++ b/df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,80 +436,85 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.15</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.14</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.13</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.12</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.11</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.10</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.9</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.8</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.7</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.6</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.5</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Logs</t>
         </is>
@@ -561,12 +566,15 @@
       <c r="O2" t="n">
         <v>0</v>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,12 +624,15 @@
       <c r="O3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -671,12 +682,15 @@
       <c r="O4" t="n">
         <v>2</v>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Mar</t>
         </is>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -726,12 +740,15 @@
       <c r="O5" t="n">
         <v>3</v>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>Apr</t>
         </is>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,12 +798,15 @@
       <c r="O6" t="n">
         <v>4</v>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,12 +856,15 @@
       <c r="O7" t="n">
         <v>5</v>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Jun</t>
         </is>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -891,12 +914,15 @@
       <c r="O8" t="n">
         <v>6</v>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="P8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>Jul</t>
         </is>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -946,12 +972,15 @@
       <c r="O9" t="n">
         <v>7</v>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="P9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1001,12 +1030,15 @@
       <c r="O10" t="n">
         <v>8</v>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="P10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>Sep</t>
         </is>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1056,12 +1088,15 @@
       <c r="O11" t="n">
         <v>9</v>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="P11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>Oct</t>
         </is>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1111,13 +1146,16 @@
       <c r="O12" t="n">
         <v>10</v>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="P12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Nov</t>
         </is>
       </c>
-      <c r="Q12" t="n">
-        <v>15</v>
+      <c r="R12" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -1166,12 +1204,15 @@
       <c r="O13" t="n">
         <v>11</v>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="P13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>Dec</t>
         </is>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>1</v>
       </c>
     </row>

--- a/df.xlsx
+++ b/df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,85 +436,90 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.16</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.15</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.14</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.13</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.12</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.11</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.10</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.9</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.8</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.7</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.6</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.5</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Logs</t>
         </is>
@@ -569,12 +574,15 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -627,12 +635,15 @@
       <c r="P3" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -685,12 +696,15 @@
       <c r="P4" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>Mar</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -743,12 +757,15 @@
       <c r="P5" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>Apr</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -801,12 +818,15 @@
       <c r="P6" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -859,12 +879,15 @@
       <c r="P7" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>Jun</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -917,12 +940,15 @@
       <c r="P8" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>Jul</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -975,12 +1001,15 @@
       <c r="P9" t="n">
         <v>7</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="n">
+        <v>7</v>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1033,12 +1062,15 @@
       <c r="P10" t="n">
         <v>8</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="n">
+        <v>8</v>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>Sep</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1091,12 +1123,15 @@
       <c r="P11" t="n">
         <v>9</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="n">
+        <v>9</v>
+      </c>
+      <c r="R11" t="inlineStr">
         <is>
           <t>Oct</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1149,13 +1184,16 @@
       <c r="P12" t="n">
         <v>10</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="n">
+        <v>10</v>
+      </c>
+      <c r="R12" t="inlineStr">
         <is>
           <t>Nov</t>
         </is>
       </c>
-      <c r="R12" t="n">
-        <v>16</v>
+      <c r="S12" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -1207,12 +1245,15 @@
       <c r="P13" t="n">
         <v>11</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="n">
+        <v>11</v>
+      </c>
+      <c r="R13" t="inlineStr">
         <is>
           <t>Dec</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>1</v>
       </c>
     </row>

--- a/df.xlsx
+++ b/df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,90 +436,95 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.17</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.16</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.15</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.14</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.13</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.12</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.11</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.10</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.9</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.8</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.7</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.6</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.5</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Logs</t>
         </is>
@@ -577,12 +582,15 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -638,12 +646,15 @@
       <c r="Q3" t="n">
         <v>1</v>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -699,12 +710,15 @@
       <c r="Q4" t="n">
         <v>2</v>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>Mar</t>
         </is>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -760,12 +774,15 @@
       <c r="Q5" t="n">
         <v>3</v>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>Apr</t>
         </is>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -821,12 +838,15 @@
       <c r="Q6" t="n">
         <v>4</v>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -882,12 +902,15 @@
       <c r="Q7" t="n">
         <v>5</v>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>Jun</t>
         </is>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -943,12 +966,15 @@
       <c r="Q8" t="n">
         <v>6</v>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="R8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>Jul</t>
         </is>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1004,12 +1030,15 @@
       <c r="Q9" t="n">
         <v>7</v>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R9" t="n">
+        <v>7</v>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1065,12 +1094,15 @@
       <c r="Q10" t="n">
         <v>8</v>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R10" t="n">
+        <v>8</v>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>Sep</t>
         </is>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1126,12 +1158,15 @@
       <c r="Q11" t="n">
         <v>9</v>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R11" t="n">
+        <v>9</v>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>Oct</t>
         </is>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1187,13 +1222,16 @@
       <c r="Q12" t="n">
         <v>10</v>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="R12" t="n">
+        <v>10</v>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>Nov</t>
         </is>
       </c>
-      <c r="S12" t="n">
-        <v>17</v>
+      <c r="T12" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1248,12 +1286,15 @@
       <c r="Q13" t="n">
         <v>11</v>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="R13" t="n">
+        <v>11</v>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>Dec</t>
         </is>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>1</v>
       </c>
     </row>

--- a/df.xlsx
+++ b/df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,95 +436,100 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.18</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.17</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.16</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.15</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.14</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.13</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.12</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.11</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.10</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.9</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.8</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.7</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.6</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.5</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Logs</t>
         </is>
@@ -585,12 +590,15 @@
       <c r="R2" t="n">
         <v>0</v>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -649,12 +657,15 @@
       <c r="R3" t="n">
         <v>1</v>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -713,12 +724,15 @@
       <c r="R4" t="n">
         <v>2</v>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="inlineStr">
         <is>
           <t>Mar</t>
         </is>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -777,12 +791,15 @@
       <c r="R5" t="n">
         <v>3</v>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="inlineStr">
         <is>
           <t>Apr</t>
         </is>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -841,12 +858,15 @@
       <c r="R6" t="n">
         <v>4</v>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -905,12 +925,15 @@
       <c r="R7" t="n">
         <v>5</v>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="inlineStr">
         <is>
           <t>Jun</t>
         </is>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -969,12 +992,15 @@
       <c r="R8" t="n">
         <v>6</v>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="S8" t="n">
+        <v>6</v>
+      </c>
+      <c r="T8" t="inlineStr">
         <is>
           <t>Jul</t>
         </is>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1033,12 +1059,15 @@
       <c r="R9" t="n">
         <v>7</v>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S9" t="n">
+        <v>7</v>
+      </c>
+      <c r="T9" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1097,12 +1126,15 @@
       <c r="R10" t="n">
         <v>8</v>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" t="n">
+        <v>8</v>
+      </c>
+      <c r="T10" t="inlineStr">
         <is>
           <t>Sep</t>
         </is>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1161,12 +1193,15 @@
       <c r="R11" t="n">
         <v>9</v>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S11" t="n">
+        <v>9</v>
+      </c>
+      <c r="T11" t="inlineStr">
         <is>
           <t>Oct</t>
         </is>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1225,13 +1260,16 @@
       <c r="R12" t="n">
         <v>10</v>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
         <is>
           <t>Nov</t>
         </is>
       </c>
-      <c r="T12" t="n">
-        <v>18</v>
+      <c r="U12" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1289,12 +1327,15 @@
       <c r="R13" t="n">
         <v>11</v>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="S13" t="n">
+        <v>11</v>
+      </c>
+      <c r="T13" t="inlineStr">
         <is>
           <t>Dec</t>
         </is>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>1</v>
       </c>
     </row>

--- a/df.xlsx
+++ b/df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,100 +436,125 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.23</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.22</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.21</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.20</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.19</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.18</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.17</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.16</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.15</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.14</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.13</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.12</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.11</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.10</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.9</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.8</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.7</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.6</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.5</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Logs</t>
         </is>
@@ -593,12 +618,27 @@
       <c r="S2" t="n">
         <v>0</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="U2" t="n">
+      <c r="Z2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -660,12 +700,27 @@
       <c r="S3" t="n">
         <v>1</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="U3" t="n">
+      <c r="Z3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -727,12 +782,27 @@
       <c r="S4" t="n">
         <v>2</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T4" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>Mar</t>
         </is>
       </c>
-      <c r="U4" t="n">
+      <c r="Z4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -794,12 +864,27 @@
       <c r="S5" t="n">
         <v>3</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>Apr</t>
         </is>
       </c>
-      <c r="U5" t="n">
+      <c r="Z5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -861,12 +946,27 @@
       <c r="S6" t="n">
         <v>4</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T6" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>4</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="U6" t="n">
+      <c r="Z6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,12 +1028,27 @@
       <c r="S7" t="n">
         <v>5</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T7" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>Jun</t>
         </is>
       </c>
-      <c r="U7" t="n">
+      <c r="Z7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -995,12 +1110,27 @@
       <c r="S8" t="n">
         <v>6</v>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="T8" t="n">
+        <v>6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6</v>
+      </c>
+      <c r="V8" t="n">
+        <v>6</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>Jul</t>
         </is>
       </c>
-      <c r="U8" t="n">
+      <c r="Z8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1062,12 +1192,27 @@
       <c r="S9" t="n">
         <v>7</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="T9" t="n">
+        <v>7</v>
+      </c>
+      <c r="U9" t="n">
+        <v>7</v>
+      </c>
+      <c r="V9" t="n">
+        <v>7</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
       </c>
-      <c r="U9" t="n">
+      <c r="Z9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1129,12 +1274,27 @@
       <c r="S10" t="n">
         <v>8</v>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="T10" t="n">
+        <v>8</v>
+      </c>
+      <c r="U10" t="n">
+        <v>8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>8</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>Sep</t>
         </is>
       </c>
-      <c r="U10" t="n">
+      <c r="Z10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1196,12 +1356,27 @@
       <c r="S11" t="n">
         <v>9</v>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="T11" t="n">
+        <v>9</v>
+      </c>
+      <c r="U11" t="n">
+        <v>9</v>
+      </c>
+      <c r="V11" t="n">
+        <v>9</v>
+      </c>
+      <c r="W11" t="n">
+        <v>9</v>
+      </c>
+      <c r="X11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y11" t="inlineStr">
         <is>
           <t>Oct</t>
         </is>
       </c>
-      <c r="U11" t="n">
+      <c r="Z11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1263,13 +1438,28 @@
       <c r="S12" t="n">
         <v>10</v>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="T12" t="n">
+        <v>10</v>
+      </c>
+      <c r="U12" t="n">
+        <v>10</v>
+      </c>
+      <c r="V12" t="n">
+        <v>10</v>
+      </c>
+      <c r="W12" t="n">
+        <v>10</v>
+      </c>
+      <c r="X12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>Nov</t>
         </is>
       </c>
-      <c r="U12" t="n">
-        <v>19</v>
+      <c r="Z12" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -1330,12 +1520,27 @@
       <c r="S13" t="n">
         <v>11</v>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="T13" t="n">
+        <v>11</v>
+      </c>
+      <c r="U13" t="n">
+        <v>11</v>
+      </c>
+      <c r="V13" t="n">
+        <v>11</v>
+      </c>
+      <c r="W13" t="n">
+        <v>11</v>
+      </c>
+      <c r="X13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>Dec</t>
         </is>
       </c>
-      <c r="U13" t="n">
+      <c r="Z13" t="n">
         <v>1</v>
       </c>
     </row>

--- a/df.xlsx
+++ b/df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,125 +436,130 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.24</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.23</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.22</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.21</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.20</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.19</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.18</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.17</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.16</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.15</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.14</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.13</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.12</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.11</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.10</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.9</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.8</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.7</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.6</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.5</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Logs</t>
         </is>
@@ -633,12 +638,15 @@
       <c r="X2" t="n">
         <v>0</v>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>Jan</t>
         </is>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -715,12 +723,15 @@
       <c r="X3" t="n">
         <v>1</v>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="inlineStr">
         <is>
           <t>Feb</t>
         </is>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -797,12 +808,15 @@
       <c r="X4" t="n">
         <v>2</v>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Y4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>Mar</t>
         </is>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -879,12 +893,15 @@
       <c r="X5" t="n">
         <v>3</v>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Y5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>Apr</t>
         </is>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -961,12 +978,15 @@
       <c r="X6" t="n">
         <v>4</v>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Y6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1043,12 +1063,15 @@
       <c r="X7" t="n">
         <v>5</v>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Y7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z7" t="inlineStr">
         <is>
           <t>Jun</t>
         </is>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1125,12 +1148,15 @@
       <c r="X8" t="n">
         <v>6</v>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Y8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z8" t="inlineStr">
         <is>
           <t>Jul</t>
         </is>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1207,12 +1233,15 @@
       <c r="X9" t="n">
         <v>7</v>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Y9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>Aug</t>
         </is>
       </c>
-      <c r="Z9" t="n">
+      <c r="AA9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1289,12 +1318,15 @@
       <c r="X10" t="n">
         <v>8</v>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Y10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>Sep</t>
         </is>
       </c>
-      <c r="Z10" t="n">
+      <c r="AA10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1371,12 +1403,15 @@
       <c r="X11" t="n">
         <v>9</v>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="inlineStr">
         <is>
           <t>Oct</t>
         </is>
       </c>
-      <c r="Z11" t="n">
+      <c r="AA11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1453,13 +1488,16 @@
       <c r="X12" t="n">
         <v>10</v>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Y12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>Nov</t>
         </is>
       </c>
-      <c r="Z12" t="n">
-        <v>24</v>
+      <c r="AA12" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -1535,12 +1573,15 @@
       <c r="X13" t="n">
         <v>11</v>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Y13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="inlineStr">
         <is>
           <t>Dec</t>
         </is>
       </c>
-      <c r="Z13" t="n">
+      <c r="AA13" t="n">
         <v>1</v>
       </c>
     </row>
